--- a/Project1/src/ExcelDoc/Project.xlsx
+++ b/Project1/src/ExcelDoc/Project.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium_Workspace\New_Selenium_Workspace\YouTubeTut\src\ExcelDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bessie\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D73BD51-84E2-43D1-949C-917CD06AD5BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D83B34C5-4796-44D0-A446-EB2632A995A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{591DCADE-72CC-4727-81D3-F8A292C990E6}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddCartData" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -395,9 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5507B7-99B1-49CF-90AA-4E45789C950D}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
